--- a/usd_thb_1019.xlsx
+++ b/usd_thb_1019.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Source: CEIC Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Date</t>
   </si>
@@ -37,7 +34,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +60,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFA8A5A4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -129,9 +119,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2406"/>
+  <dimension ref="A1:B2405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2384" workbookViewId="0">
+      <selection activeCell="J2396" sqref="J2396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,10 +437,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -19688,15 +19675,7 @@
         <v>30.2056</v>
       </c>
     </row>
-    <row r="2406" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2406" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2406" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>